--- a/aqarmap_report.xlsx
+++ b/aqarmap_report.xlsx
@@ -478,28 +478,28 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>محافظه القاهره</t>
+          <t>محافظه الاسكندريه</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>قسم بدر</t>
+          <t>قسم اول الرمل</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>41579.62188279301</v>
+        <v>42871.10806577917</v>
       </c>
       <c r="E2" t="n">
-        <v>173.2484245116376</v>
+        <v>178.6296169407465</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-02-10</t>
+          <t>2025-02-11</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>وحدة سكنية</t>
+          <t>غرفة</t>
         </is>
       </c>
     </row>

--- a/aqarmap_report.xlsx
+++ b/aqarmap_report.xlsx
@@ -483,18 +483,18 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>قسم اول الرمل</t>
+          <t>قسم الدخيله</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>42871.10806577917</v>
+        <v>43660.08890658174</v>
       </c>
       <c r="E2" t="n">
-        <v>178.6296169407465</v>
+        <v>181.9170371107572</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-02-11</t>
+          <t>2025-02-12</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
